--- a/RXRX.xlsx
+++ b/RXRX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F08CF3-869C-4E8F-9730-FAF9E6F908F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10CA3B-3F26-4B09-BA95-A8517B10EB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27690" yWindow="375" windowWidth="24000" windowHeight="20565" xr2:uid="{537CD3F5-94F2-439B-A3FA-C38DF0A4B0A3}"/>
+    <workbookView xWindow="-37875" yWindow="660" windowWidth="34935" windowHeight="19950" xr2:uid="{537CD3F5-94F2-439B-A3FA-C38DF0A4B0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>FAP, AXIN1/APC cancer</t>
   </si>
   <si>
-    <t>Q123</t>
-  </si>
-  <si>
     <t>PPE</t>
   </si>
   <si>
@@ -124,12 +121,15 @@
   </si>
   <si>
     <t>Created in 2009</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,7 +260,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -276,7 +275,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9011006C-051B-4A9C-9322-D9C7F0BFDAD7}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,7 +330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -435,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,7 +589,7 @@
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -600,72 +601,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12" t="s">
-        <v>27</v>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>5.5</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>191.61823799999999</v>
+        <v>242.19640899999999</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3">
         <f>K2*K3</f>
-        <v>1053.9003089999999</v>
+        <v>1487.0859512599998</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -673,66 +667,58 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <v>473.1</v>
+        <v>473.4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <f>1.179+0.661</f>
-        <v>1.84</v>
+        <f>8.109+22.921</f>
+        <v>31.03</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3">
         <f>K4-K5+K6</f>
-        <v>582.64030899999989</v>
+        <v>1044.7159512599999</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>90</v>
@@ -775,16 +761,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>24</v>
+      <c r="A1" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/RXRX.xlsx
+++ b/RXRX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10CA3B-3F26-4B09-BA95-A8517B10EB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F70A27-3E54-7C4D-B580-5DDFF6037432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37875" yWindow="660" windowWidth="34935" windowHeight="19950" xr2:uid="{537CD3F5-94F2-439B-A3FA-C38DF0A4B0A3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{537CD3F5-94F2-439B-A3FA-C38DF0A4B0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>Created in 2009</t>
   </si>
   <si>
-    <t>Q224</t>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -589,18 +589,18 @@
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -635,13 +635,14 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>242.19640899999999</v>
+        <f>279.602258+7.038575</f>
+        <v>286.64083299999999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
@@ -659,11 +660,11 @@
       </c>
       <c r="K4" s="3">
         <f>K2*K3</f>
-        <v>1487.0859512599998</v>
+        <v>1782.9059812599999</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -675,13 +676,14 @@
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <v>473.4</v>
+        <f>427.647</f>
+        <v>427.64699999999999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -693,14 +695,14 @@
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <f>8.109+22.921</f>
-        <v>31.03</v>
+        <f>20.51+8.219</f>
+        <v>28.728999999999999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -713,10 +715,10 @@
       </c>
       <c r="K7" s="3">
         <f>K4-K5+K6</f>
-        <v>1044.7159512599999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1383.98798126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J10" t="s">
         <v>21</v>
       </c>
@@ -724,7 +726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -732,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -755,17 +757,17 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>

--- a/RXRX.xlsx
+++ b/RXRX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F70A27-3E54-7C4D-B580-5DDFF6037432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D4E11-7E88-4633-907A-D6925F293CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{537CD3F5-94F2-439B-A3FA-C38DF0A4B0A3}"/>
+    <workbookView xWindow="39260" yWindow="2040" windowWidth="17080" windowHeight="16500" xr2:uid="{537CD3F5-94F2-439B-A3FA-C38DF0A4B0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Price</t>
   </si>
@@ -123,7 +123,43 @@
     <t>Created in 2009</t>
   </si>
   <si>
-    <t>Q324</t>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>REC-1245</t>
+  </si>
+  <si>
+    <t>RBM39</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>REC-4539</t>
+  </si>
+  <si>
+    <t>LSD1</t>
+  </si>
+  <si>
+    <t>SCLC</t>
+  </si>
+  <si>
+    <t>REC-3565</t>
+  </si>
+  <si>
+    <t>MALT1</t>
+  </si>
+  <si>
+    <t>REC-4209</t>
+  </si>
+  <si>
+    <t>IPF</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -586,21 +622,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544FE1F-32A2-4C7F-A6CE-E166AA60FCD0}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -610,7 +646,9 @@
       <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="11" t="s">
@@ -620,29 +658,31 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>6.22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
       <c r="H3" s="5"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f>279.602258+7.038575</f>
-        <v>286.64083299999999</v>
+        <v>336.03598</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
@@ -660,11 +700,11 @@
       </c>
       <c r="K4" s="3">
         <f>K2*K3</f>
-        <v>1782.9059812599999</v>
+        <v>1804.5132126000001</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -676,14 +716,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <f>427.647</f>
-        <v>427.64699999999999</v>
+        <v>603</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -695,50 +734,91 @@
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <f>20.51+8.219</f>
-        <v>28.728999999999999</v>
+        <f>19.022+8.425</f>
+        <v>27.446999999999999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3">
         <f>K4-K5+K6</f>
-        <v>1383.98798126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="J10" t="s">
+        <v>1228.9602126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
         <v>21</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -757,17 +837,17 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
